--- a/team_specific_matrix/Cornell_A.xlsx
+++ b/team_specific_matrix/Cornell_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1796875</v>
+        <v>0.2057416267942584</v>
       </c>
       <c r="C2">
-        <v>0.609375</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.015625</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1328125</v>
+        <v>0.1244019138755981</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0625</v>
+        <v>0.07177033492822966</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02469135802469136</v>
+        <v>0.024</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02469135802469136</v>
+        <v>0.016</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7654320987654321</v>
+        <v>0.744</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1851851851851852</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1052631578947368</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5789473684210527</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3157894736842105</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09166666666666666</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1916666666666667</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.025</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.15</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="R6">
-        <v>0.06666666666666667</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="S6">
-        <v>0.35</v>
+        <v>0.3823529411764706</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05494505494505494</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04395604395604396</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03296703296703297</v>
+        <v>0.04511278195488722</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1208791208791209</v>
+        <v>0.1353383458646616</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03296703296703297</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R7">
-        <v>0.1538461538461539</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="S7">
-        <v>0.4065934065934066</v>
+        <v>0.3609022556390977</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06048387096774194</v>
+        <v>0.07624633431085044</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01209677419354839</v>
+        <v>0.008797653958944282</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0564516129032258</v>
+        <v>0.07624633431085044</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1008064516129032</v>
+        <v>0.1026392961876833</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01612903225806452</v>
+        <v>0.01173020527859238</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2217741935483871</v>
+        <v>0.1994134897360704</v>
       </c>
       <c r="R8">
-        <v>0.125</v>
+        <v>0.126099706744868</v>
       </c>
       <c r="S8">
-        <v>0.4072580645161291</v>
+        <v>0.3988269794721407</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1140350877192982</v>
+        <v>0.1235294117647059</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01754385964912281</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06140350877192982</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05263157894736842</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008771929824561403</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="R9">
-        <v>0.1666666666666667</v>
+        <v>0.1588235294117647</v>
       </c>
       <c r="S9">
-        <v>0.412280701754386</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08217270194986072</v>
+        <v>0.08708414872798434</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01392757660167131</v>
+        <v>0.01663405088062622</v>
       </c>
       <c r="E10">
-        <v>0.001392757660167131</v>
+        <v>0.0009784735812133072</v>
       </c>
       <c r="F10">
-        <v>0.06406685236768803</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.116991643454039</v>
+        <v>0.1213307240704501</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008356545961002786</v>
+        <v>0.01761252446183953</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2367688022284123</v>
+        <v>0.2289628180039139</v>
       </c>
       <c r="R10">
-        <v>0.1044568245125348</v>
+        <v>0.1076320939334638</v>
       </c>
       <c r="S10">
-        <v>0.3718662952646239</v>
+        <v>0.3581213307240704</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1396648044692737</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1229050279329609</v>
+        <v>0.1098484848484848</v>
       </c>
       <c r="K11">
-        <v>0.223463687150838</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L11">
-        <v>0.4972067039106145</v>
+        <v>0.4810606060606061</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01675977653631285</v>
+        <v>0.01893939393939394</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6521739130434783</v>
+        <v>0.6201550387596899</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.25</v>
+        <v>0.2713178294573643</v>
       </c>
       <c r="K12">
-        <v>0.03260869565217391</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="L12">
-        <v>0.03260869565217391</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03260869565217391</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5789473684210527</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4210526315789473</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007633587786259542</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1221374045801527</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="I15">
-        <v>0.1221374045801527</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="J15">
-        <v>0.3893129770992366</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K15">
-        <v>0.04580152671755725</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04580152671755725</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.267175572519084</v>
+        <v>0.2653061224489796</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01162790697674419</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1279069767441861</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="I16">
-        <v>0.06976744186046512</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="J16">
-        <v>0.4418604651162791</v>
+        <v>0.4328358208955224</v>
       </c>
       <c r="K16">
-        <v>0.1279069767441861</v>
+        <v>0.1417910447761194</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04651162790697674</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04651162790697674</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1279069767441861</v>
+        <v>0.1343283582089552</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007142857142857143</v>
+        <v>0.008</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.15</v>
+        <v>0.1653333333333333</v>
       </c>
       <c r="I17">
-        <v>0.08571428571428572</v>
+        <v>0.09866666666666667</v>
       </c>
       <c r="J17">
-        <v>0.45</v>
+        <v>0.432</v>
       </c>
       <c r="K17">
-        <v>0.1</v>
+        <v>0.09866666666666667</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01071428571428571</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002666666666666667</v>
       </c>
       <c r="O17">
-        <v>0.06428571428571428</v>
+        <v>0.06133333333333333</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1321428571428571</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006802721088435374</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2040816326530612</v>
+        <v>0.1770334928229665</v>
       </c>
       <c r="I18">
-        <v>0.07482993197278912</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="J18">
-        <v>0.3945578231292517</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="K18">
-        <v>0.09523809523809523</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01360544217687075</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06802721088435375</v>
+        <v>0.05741626794258373</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1428571428571428</v>
+        <v>0.1100478468899522</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02121640735502122</v>
+        <v>0.019211324570273</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2135785007072136</v>
+        <v>0.2042467138523761</v>
       </c>
       <c r="I19">
-        <v>0.07920792079207921</v>
+        <v>0.08291203235591507</v>
       </c>
       <c r="J19">
-        <v>0.347949080622348</v>
+        <v>0.3508594539939333</v>
       </c>
       <c r="K19">
-        <v>0.1074964639321075</v>
+        <v>0.109201213346815</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01414427157001414</v>
+        <v>0.01516683518705763</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09335219236209336</v>
+        <v>0.09605662285136501</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1230551626591231</v>
+        <v>0.1223458038422649</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Cornell_A.xlsx
+++ b/team_specific_matrix/Cornell_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2057416267942584</v>
+        <v>0.2008733624454148</v>
       </c>
       <c r="C2">
-        <v>0.5789473684210527</v>
+        <v>0.5851528384279476</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01913875598086124</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1244019138755981</v>
+        <v>0.1222707423580786</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07177033492822966</v>
+        <v>0.06986899563318777</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.024</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.016</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.744</v>
+        <v>0.7338129496402878</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.216</v>
+        <v>0.223021582733813</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06060606060606061</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.303030303030303</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07647058823529412</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01176470588235294</v>
+        <v>0.015625</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1882352941176471</v>
+        <v>0.1927083333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02941176470588235</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1411764705882353</v>
+        <v>0.140625</v>
       </c>
       <c r="R6">
-        <v>0.07058823529411765</v>
+        <v>0.078125</v>
       </c>
       <c r="S6">
-        <v>0.3823529411764706</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1052631578947368</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06015037593984962</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04511278195488722</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1353383458646616</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02255639097744361</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1428571428571428</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="R7">
-        <v>0.1278195488721804</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="S7">
-        <v>0.3609022556390977</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07624633431085044</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008797653958944282</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07624633431085044</v>
+        <v>0.06994818652849741</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1026392961876833</v>
+        <v>0.09585492227979274</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01173020527859238</v>
+        <v>0.01813471502590673</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1994134897360704</v>
+        <v>0.1917098445595855</v>
       </c>
       <c r="R8">
-        <v>0.126099706744868</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="S8">
-        <v>0.3988269794721407</v>
+        <v>0.4119170984455959</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,13 +911,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1235294117647059</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01764705882352941</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05294117647058823</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02352941176470588</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1529411764705882</v>
+        <v>0.142156862745098</v>
       </c>
       <c r="R9">
-        <v>0.1588235294117647</v>
+        <v>0.142156862745098</v>
       </c>
       <c r="S9">
-        <v>0.4117647058823529</v>
+        <v>0.4264705882352941</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08708414872798434</v>
+        <v>0.08601216333622937</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01663405088062622</v>
+        <v>0.01824500434404865</v>
       </c>
       <c r="E10">
-        <v>0.0009784735812133072</v>
+        <v>0.0008688097306689834</v>
       </c>
       <c r="F10">
-        <v>0.06164383561643835</v>
+        <v>0.06602953953084274</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1213307240704501</v>
+        <v>0.1207645525629887</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01761252446183953</v>
+        <v>0.01650738488271069</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2289628180039139</v>
+        <v>0.2258905299739357</v>
       </c>
       <c r="R10">
-        <v>0.1076320939334638</v>
+        <v>0.1112076455256299</v>
       </c>
       <c r="S10">
-        <v>0.3581213307240704</v>
+        <v>0.3544743701129452</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1477272727272727</v>
+        <v>0.1566666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1098484848484848</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="K11">
-        <v>0.2424242424242424</v>
+        <v>0.24</v>
       </c>
       <c r="L11">
-        <v>0.4810606060606061</v>
+        <v>0.48</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01893939393939394</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6201550387596899</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2713178294573643</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="K12">
-        <v>0.0310077519379845</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="L12">
-        <v>0.0310077519379845</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04651162790697674</v>
+        <v>0.04794520547945205</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6428571428571429</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3571428571428572</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.00510204081632653</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1275510204081633</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="I15">
-        <v>0.1020408163265306</v>
+        <v>0.1008771929824561</v>
       </c>
       <c r="J15">
-        <v>0.3928571428571428</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="K15">
-        <v>0.05102040816326531</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05612244897959184</v>
+        <v>0.05701754385964912</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2653061224489796</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01492537313432836</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1343283582089552</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="I16">
-        <v>0.06716417910447761</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J16">
-        <v>0.4328358208955224</v>
+        <v>0.4407894736842105</v>
       </c>
       <c r="K16">
-        <v>0.1417910447761194</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04477611940298507</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02985074626865672</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1343283582089552</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1653333333333333</v>
+        <v>0.1706730769230769</v>
       </c>
       <c r="I17">
-        <v>0.09866666666666667</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="J17">
-        <v>0.432</v>
+        <v>0.4206730769230769</v>
       </c>
       <c r="K17">
-        <v>0.09866666666666667</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01333333333333333</v>
+        <v>0.01201923076923077</v>
       </c>
       <c r="N17">
-        <v>0.002666666666666667</v>
+        <v>0.002403846153846154</v>
       </c>
       <c r="O17">
-        <v>0.06133333333333333</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01435406698564593</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1770334928229665</v>
+        <v>0.1701244813278008</v>
       </c>
       <c r="I18">
-        <v>0.1004784688995215</v>
+        <v>0.09958506224066389</v>
       </c>
       <c r="J18">
-        <v>0.4210526315789473</v>
+        <v>0.4190871369294606</v>
       </c>
       <c r="K18">
-        <v>0.1052631578947368</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01435406698564593</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05741626794258373</v>
+        <v>0.06224066390041494</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1100478468899522</v>
+        <v>0.1037344398340249</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.019211324570273</v>
+        <v>0.0168141592920354</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2042467138523761</v>
+        <v>0.2017699115044248</v>
       </c>
       <c r="I19">
-        <v>0.08291203235591507</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="J19">
-        <v>0.3508594539939333</v>
+        <v>0.3460176991150443</v>
       </c>
       <c r="K19">
-        <v>0.109201213346815</v>
+        <v>0.1106194690265487</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01516683518705763</v>
+        <v>0.01592920353982301</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09605662285136501</v>
+        <v>0.09557522123893805</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1223458038422649</v>
+        <v>0.1247787610619469</v>
       </c>
     </row>
   </sheetData>
